--- a/data/raw/cleocatra.xlsx
+++ b/data/raw/cleocatra.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,9 +468,33 @@
         <v>2025-08-12 19:19:51.596</v>
       </c>
     </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Cleocatra</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+33.69%</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+79.31%</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+91.54%</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.2%</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-08-12 19:36:24.052</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/cleocatra.xlsx
+++ b/data/raw/cleocatra.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,9 +492,33 @@
         <v>2025-08-12 19:36:24.052</v>
       </c>
     </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Cleocatra</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+33.69%</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+79.31%</v>
+      </c>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+91.54%</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.2%</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2025-08-12 19:49:01.456</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/cleocatra.xlsx
+++ b/data/raw/cleocatra.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,9 +516,33 @@
         <v>2025-08-12 19:49:01.456</v>
       </c>
     </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Cleocatra</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+33.69%</v>
+      </c>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+79.31%</v>
+      </c>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+91.54%</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.2%</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2025-08-12 19:59:56.101</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>